--- a/Bases/3.10.xlsx
+++ b/Bases/3.10.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26306"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/rrcastillo_ine_gob_gt/Documents/GitHub/Mujeres08marzo2023/Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_AD4D2F04E46CFB4ACB3E2031CDD2FB74683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B092CC52-0652-4CF4-A8D9-85F4BB520EB6}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D2F04E46CFB4ACB3E2031CDD2FB74683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21BBF26E-931D-4313-B516-6925A9DDEBC2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,6 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>Cantidad de hijos</t>
+  </si>
+  <si>
     <t>Sin hijos</t>
   </si>
   <si>
@@ -40,16 +54,13 @@
   </si>
   <si>
     <t>Tasa de mujeres en la PO por número de hijos</t>
-  </si>
-  <si>
-    <t>Cantidad de hijos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,33 +379,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>8.7575199999999995</v>
